--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T17:47:22-03:00</t>
+    <t>2024-09-09T18:39:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:39:42-03:00</t>
+    <t>2024-09-10T08:50:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="706">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T08:50:18-03:00</t>
+    <t>2025-02-21T13:43:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,132 +576,129 @@
     <t>Patient.extension:identidadGenero.id</t>
   </si>
   <si>
+    <t>Patient.extension:identidadGenero.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:identidadGenero.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-genderIdentity</t>
+  </si>
+  <si>
+    <t>Patient.extension:identidadGenero.value[x]</t>
+  </si>
+  <si>
+    <t>Valor de la identidad de género del individuo.</t>
+  </si>
+  <si>
+    <t>https://www.minsalud.gov.co/ihc/fhir/ValueSet/IdentidadGeneroVS</t>
+  </si>
+  <si>
+    <t>Patient.extension:nacionalidad</t>
+  </si>
+  <si>
+    <t>nacionalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-nacionalidad}
+</t>
+  </si>
+  <si>
+    <t>País de nacionalidad del individuo.</t>
+  </si>
+  <si>
+    <t>Nemónico del país que determina el vínculo jurídico entre un individuo y un Estado</t>
+  </si>
+  <si>
+    <t>Patient.extension:etnia</t>
+  </si>
+  <si>
+    <t>etnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-etnia}
+</t>
+  </si>
+  <si>
+    <t>Pertenencia étnica del individuo.</t>
+  </si>
+  <si>
+    <t>Identificador para determinar la pertenencia étnica de la persona.</t>
+  </si>
+  <si>
+    <t>Patient.extension:comunidadetnica</t>
+  </si>
+  <si>
+    <t>comunidadetnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-comunidadetnica}
+</t>
+  </si>
+  <si>
+    <t>Comunidad Etnica del individuo.</t>
+  </si>
+  <si>
+    <t>Descripcion para determinar la comunidad étnica de la persona.</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identificación del individuo.</t>
+  </si>
+  <si>
+    <t>Elemento de dato que contiene el nombre y número de identificación de una determinada persona 
+para efectos de identidad e individualización.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Patient.extension:identidadGenero.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:identidadGenero.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/patient-genderIdentity</t>
-  </si>
-  <si>
-    <t>Patient.extension:identidadGenero.value[x]</t>
-  </si>
-  <si>
-    <t>Valor de la identidad de género del individuo.</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>https://www.minsalud.gov.co/ihc/fhir/ValueSet/IdentidadGeneroVS</t>
-  </si>
-  <si>
-    <t>Patient.extension:nacionalidad</t>
-  </si>
-  <si>
-    <t>nacionalidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-nacionalidad}
-</t>
-  </si>
-  <si>
-    <t>País de nacionalidad del individuo.</t>
-  </si>
-  <si>
-    <t>Nemónico del país que determina el vínculo jurídico entre un individuo y un Estado</t>
-  </si>
-  <si>
-    <t>Patient.extension:etnia</t>
-  </si>
-  <si>
-    <t>etnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-etnia}
-</t>
-  </si>
-  <si>
-    <t>Pertenencia étnica del individuo.</t>
-  </si>
-  <si>
-    <t>Identificador para determinar la pertenencia étnica de la persona.</t>
-  </si>
-  <si>
-    <t>Patient.extension:comunidadetnica</t>
-  </si>
-  <si>
-    <t>comunidadetnica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.minsalud.gov.co/ihc/fhir/StructureDefinition/co-patient-comunidadetnica}
-</t>
-  </si>
-  <si>
-    <t>Comunidad Etnica del individuo.</t>
-  </si>
-  <si>
-    <t>Descripcion para determinar la comunidad étnica de la persona.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identificación del individuo.</t>
-  </si>
-  <si>
-    <t>Elemento de dato que contiene el nombre y número de identificación de una determinada persona 
-para efectos de identidad e individualización.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t>Patient.identifier.extension</t>
@@ -1443,7 +1440,10 @@
     <t>Fecha y hora de nacimiento del individuo.</t>
   </si>
   <si>
-    <t>The time of day that the Patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
+    <t>The time of day that the Patient/Person/RelatedPerson/Practitioner was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
+  </si>
+  <si>
+    <t>The patient prefix on the extension was retained to ensure backward compatibility with existing data (the content itself is provided to assist in sharing data across patient resources effectively)</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>
@@ -1569,7 +1569,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -4300,7 +4300,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -4349,7 +4349,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>147</v>
@@ -4415,7 +4415,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>153</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>158</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>165</v>
@@ -4699,10 +4699,10 @@
         <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4760,7 +4760,7 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>100</v>
@@ -4783,13 +4783,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4811,13 +4811,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4928,13 +4928,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5017,13 +5017,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>80</v>
@@ -5045,13 +5045,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5134,14 +5134,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5163,16 +5163,16 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5221,7 +5221,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5279,17 +5279,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5338,7 +5338,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5353,16 +5353,16 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5396,7 +5396,7 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>147</v>
@@ -5485,14 +5485,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5514,13 +5514,13 @@
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5602,10 +5602,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5631,16 +5631,16 @@
         <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5668,28 +5668,28 @@
         <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5704,7 +5704,7 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5750,16 +5750,16 @@
         <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5784,31 +5784,31 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5823,7 +5823,7 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5832,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5866,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>147</v>
@@ -5955,10 +5955,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5984,7 +5984,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -6070,13 +6070,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
@@ -6098,13 +6098,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6213,19 +6213,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6274,7 +6274,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6289,16 +6289,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6332,7 +6332,7 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>147</v>
@@ -6421,14 +6421,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6450,13 +6450,13 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6538,10 +6538,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6567,16 +6567,16 @@
         <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6625,7 +6625,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6640,16 +6640,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6683,16 +6683,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6742,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6757,16 +6757,16 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6803,14 +6803,14 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6839,25 +6839,25 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6872,16 +6872,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6915,17 +6915,17 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6974,7 +6974,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6989,16 +6989,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7006,10 +7006,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7032,19 +7032,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -7093,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7108,16 +7108,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7125,10 +7125,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7151,19 +7151,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7212,7 +7212,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7227,16 +7227,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7244,10 +7244,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7273,16 +7273,16 @@
         <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7295,43 +7295,43 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7346,16 +7346,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7363,10 +7363,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7389,16 +7389,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7412,43 +7412,43 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7463,16 +7463,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7506,13 +7506,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7563,7 +7563,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7578,16 +7578,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7621,16 +7621,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7680,7 +7680,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7695,16 +7695,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7738,26 +7738,26 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="O45" t="s" s="2">
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="R45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7816,13 +7816,13 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>151</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7859,19 +7859,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7920,7 +7920,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7935,16 +7935,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7952,10 +7952,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7978,7 +7978,7 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>147</v>
@@ -8067,14 +8067,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8096,13 +8096,13 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8184,10 +8184,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8213,16 +8213,16 @@
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8250,28 +8250,28 @@
         <v>169</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8286,16 +8286,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8329,19 +8329,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8390,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8405,16 +8405,16 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8422,14 +8422,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8448,16 +8448,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8507,7 +8507,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8522,16 +8522,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8539,10 +8539,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8565,13 +8565,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8654,10 +8654,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8683,7 +8683,7 @@
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>135</v>
@@ -8767,13 +8767,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
@@ -8795,13 +8795,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8884,10 +8884,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8910,13 +8910,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8940,34 +8940,34 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8999,14 +8999,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9025,16 +9025,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9084,7 +9084,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9099,16 +9099,16 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9142,13 +9142,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9199,7 +9199,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9214,16 +9214,16 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9231,10 +9231,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9257,13 +9257,13 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9314,7 +9314,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9329,16 +9329,16 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9346,10 +9346,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9372,17 +9372,17 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9431,7 +9431,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9446,16 +9446,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9463,10 +9463,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9489,19 +9489,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9550,7 +9550,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9565,16 +9565,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9582,10 +9582,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9611,16 +9611,16 @@
         <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9667,7 +9667,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9682,16 +9682,16 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9725,19 +9725,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9786,7 +9786,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9801,27 +9801,27 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9844,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9933,10 +9933,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9962,7 +9962,7 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>135</v>
@@ -10046,13 +10046,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>80</v>
@@ -10074,15 +10074,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10189,13 +10191,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10542,7 +10544,7 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>147</v>
@@ -10638,7 +10640,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10660,13 +10662,13 @@
         <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10967,7 +10969,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -11084,7 +11086,7 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -11127,7 +11129,7 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>508</v>
@@ -11139,7 +11141,7 @@
         <v>510</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11203,7 +11205,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -11246,7 +11248,7 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>515</v>
@@ -11361,7 +11363,7 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>523</v>
@@ -11476,7 +11478,7 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>530</v>
@@ -11593,7 +11595,7 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>539</v>
@@ -11708,7 +11710,7 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>546</v>
@@ -11823,7 +11825,7 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>553</v>
@@ -11940,7 +11942,7 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>559</v>
@@ -12014,7 +12016,7 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -12092,7 +12094,7 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y82" t="s" s="2">
         <v>569</v>
@@ -12531,7 +12533,7 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>147</v>
@@ -12627,7 +12629,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12649,13 +12651,13 @@
         <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N87" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12772,10 +12774,10 @@
         <v>603</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12917,7 +12919,7 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y89" t="s" s="2">
         <v>609</v>
@@ -12999,7 +13001,7 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>614</v>
@@ -13073,7 +13075,7 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>151</v>
@@ -13116,7 +13118,7 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>619</v>
@@ -13128,7 +13130,7 @@
         <v>621</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13192,7 +13194,7 @@
         <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>151</v>
@@ -13426,7 +13428,7 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>151</v>
@@ -13469,7 +13471,7 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>636</v>
@@ -13586,7 +13588,7 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>643</v>
@@ -13820,7 +13822,7 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>147</v>
@@ -13916,7 +13918,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13938,13 +13940,13 @@
         <v>133</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N98" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14061,10 +14063,10 @@
         <v>603</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14290,7 +14292,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>665</v>
@@ -14526,7 +14528,7 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>681</v>
@@ -14764,7 +14766,7 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>147</v>
@@ -14860,7 +14862,7 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14882,13 +14884,13 @@
         <v>133</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="N106" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15005,10 +15007,10 @@
         <v>603</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15189,7 +15191,7 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>151</v>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:43:19-03:00</t>
+    <t>2025-03-20T08:51:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T08:51:13-03:00</t>
+    <t>2025-03-24T09:32:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:32:33-03:00</t>
+    <t>2025-03-24T16:25:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:25:06-03:00</t>
+    <t>2025-03-25T08:49:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T08:49:07-03:00</t>
+    <t>2025-04-08T14:01:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T14:01:09-03:00</t>
+    <t>2025-04-08T16:57:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T16:57:34-03:00</t>
+    <t>2025-04-10T19:36:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T19:36:54-03:00</t>
+    <t>2025-04-11T11:36:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-PacienteCo.xlsx
+++ b/docs/v043/StructureDefinition-PacienteCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:36:21-03:00</t>
+    <t>2025-04-11T11:51:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
